--- a/Completed Projects/AIR WAR COLLEGE/Running Bill/Running Bill No 2 (Quantities).xlsx
+++ b/Completed Projects/AIR WAR COLLEGE/Running Bill/Running Bill No 2 (Quantities).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\AIR WAR COLLEGE\Running Bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6371483-7529-42AA-B47C-71A26FC7D8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDDCCAA-04F3-479A-99B2-CA80D3C2DB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="First Duct" sheetId="2" r:id="rId3"/>
     <sheet name="Second Duct" sheetId="4" r:id="rId4"/>
     <sheet name="Third Duct" sheetId="3" r:id="rId5"/>
+    <sheet name="Vairation" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'First Duct'!$A$1:$J$14</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Second Duct'!$A$1:$N$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Third Duct'!$A$1:$O$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Vairation!$A$1:$J$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="86">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -276,6 +278,45 @@
   </si>
   <si>
     <t>Third Floor</t>
+  </si>
+  <si>
+    <t>Variation Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply, fabrication, and installation of G.I. Duct work using prime quality sheet metal as specified in the specifications and drawing.                                                             </t>
+  </si>
+  <si>
+    <t>Supply and installation of 1.5” thick, 24 kg/m3 density Glass Wool Insulation with 8 oz. Canvas cloth wrapping, antifungal paint around duct with adhesive and 2” wide adhesive tape as specified in the specifications and drawing.</t>
+  </si>
+  <si>
+    <t>Supply &amp;  installation of Pre-insulated flexible duct 8" Dia.</t>
+  </si>
+  <si>
+    <t>Providing and installation Jubilee clamp 10" for flexible duct.</t>
+  </si>
+  <si>
+    <t>Providing and installation of G.I sheet metal round neck 8" dia for fixing flexible duct.</t>
+  </si>
+  <si>
+    <t>Fabrication and installation of G.I sheet metal plenum box for supply air diffuser.</t>
+  </si>
+  <si>
+    <t>Supply &amp;  installation of fiber glass insulation over supply air plenum including canvas cloth, antifungus paint etc complete in all respect</t>
+  </si>
+  <si>
+    <t>Sqft</t>
+  </si>
+  <si>
+    <t>Rft</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>vii</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1005,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1289,6 +1330,9 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1310,15 +1354,24 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="18" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,32 +1381,32 @@
     <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="34" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1722,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A12:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1740,8 +1793,8 @@
   </cols>
   <sheetData>
     <row r="12" spans="1:6" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="104"/>
       <c r="D12" s="103" t="s">
         <v>46</v>
@@ -1751,8 +1804,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="104"/>
       <c r="D13" s="103" t="s">
         <v>47</v>
@@ -1775,18 +1828,18 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="96" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="101"/>
       <c r="E15" s="101"/>
       <c r="F15" s="102"/>
     </row>
     <row r="16" spans="1:6" s="96" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="100"/>
       <c r="D16" s="101"/>
       <c r="E16" s="101"/>
@@ -1798,8 +1851,8 @@
       </c>
       <c r="B17" s="98"/>
       <c r="C17" s="94"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="102"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1812,20 +1865,20 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="118"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -1835,13 +1888,13 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1950,10 +2003,10 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="123" t="s">
+      <c r="A30" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="123"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="70" t="e">
         <f>SUM(C25:C28)</f>
         <v>#REF!</v>
@@ -1970,10 +2023,10 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="123"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="70">
         <v>0</v>
       </c>
@@ -1988,10 +2041,10 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="123" t="s">
+      <c r="A32" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="123"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="70">
         <v>0</v>
       </c>
@@ -2005,10 +2058,10 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="123" t="s">
+      <c r="A33" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="123"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="70">
         <v>0</v>
       </c>
@@ -2021,10 +2074,10 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:10" s="13" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="123"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="70">
         <v>0</v>
       </c>
@@ -2111,11 +2164,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A19:E19"/>
@@ -2124,6 +2172,11 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -2138,8 +2191,8 @@
   </sheetPr>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.2"/>
@@ -2167,40 +2220,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="133"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="126" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="128"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="132"/>
     </row>
     <row r="3" spans="1:21" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="85" t="s">
         <v>67</v>
       </c>
@@ -2761,6 +2814,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A17:J21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2768,7 +2822,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -2779,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2808,40 +2861,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="137"/>
+      <c r="B1" s="136"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="131" t="s">
+      <c r="A2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129" t="s">
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="85" t="s">
         <v>67</v>
       </c>
@@ -3254,13 +3307,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3270,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A17" sqref="A17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3299,40 +3352,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="137"/>
+      <c r="B1" s="136"/>
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="131" t="s">
+      <c r="A2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129" t="s">
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-    </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+    </row>
+    <row r="3" spans="1:19" s="17" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="85" t="s">
         <v>67</v>
       </c>
@@ -3592,7 +3645,7 @@
         <v>1134.7517730496454</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>62</v>
       </c>
@@ -3752,13 +3805,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3797,40 +3850,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="137"/>
+      <c r="B1" s="136"/>
     </row>
     <row r="2" spans="1:17" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="131" t="s">
+      <c r="A2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129" t="s">
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-    </row>
-    <row r="3" spans="1:17" s="17" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+    </row>
+    <row r="3" spans="1:17" s="17" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="85" t="s">
         <v>67</v>
       </c>
@@ -4061,7 +4114,7 @@
         <v>1134.7517730496454</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>62</v>
       </c>
@@ -4105,7 +4158,7 @@
       </c>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="66" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
         <v>63</v>
       </c>
@@ -4238,16 +4291,523 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B071A35F-9843-4E0D-B4FE-BD74025DFE8A}">
+  <dimension ref="A1:X55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" style="17" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" style="17"/>
+    <col min="5" max="5" width="13" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="17"/>
+    <col min="12" max="13" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="17" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="17" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="17"/>
+    <col min="19" max="19" width="12" style="17" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" style="88" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="17"/>
+    <col min="23" max="23" width="16.1640625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="16" style="17" customWidth="1"/>
+    <col min="25" max="16384" width="9.33203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="133"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="131"/>
+      <c r="J2" s="132"/>
+    </row>
+    <row r="3" spans="1:21" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+    </row>
+    <row r="5" spans="1:21" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="34">
+        <v>13000</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="140">
+        <v>9023</v>
+      </c>
+      <c r="F5" s="140">
+        <v>3977</v>
+      </c>
+      <c r="G5" s="140">
+        <f>F5+E5</f>
+        <v>13000</v>
+      </c>
+      <c r="H5" s="140">
+        <v>9023</v>
+      </c>
+      <c r="I5" s="140">
+        <v>3977</v>
+      </c>
+      <c r="J5" s="140">
+        <f>I5+H5</f>
+        <v>13000</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="M5" s="19">
+        <v>543.7352245862885</v>
+      </c>
+      <c r="N5" s="20">
+        <v>141.84397163120568</v>
+      </c>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="34">
+        <v>13000</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="140">
+        <v>9023</v>
+      </c>
+      <c r="F6" s="140">
+        <v>3977</v>
+      </c>
+      <c r="G6" s="140">
+        <f>F6+E6</f>
+        <v>13000</v>
+      </c>
+      <c r="H6" s="140">
+        <v>9023</v>
+      </c>
+      <c r="I6" s="140">
+        <v>3977</v>
+      </c>
+      <c r="J6" s="140">
+        <f>I6+H6</f>
+        <v>13000</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="112"/>
+    </row>
+    <row r="7" spans="1:21" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="34">
+        <v>300</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="140">
+        <v>275</v>
+      </c>
+      <c r="F7" s="140">
+        <v>25</v>
+      </c>
+      <c r="G7" s="140">
+        <f>F7+E7</f>
+        <v>300</v>
+      </c>
+      <c r="H7" s="140">
+        <v>275</v>
+      </c>
+      <c r="I7" s="140">
+        <v>25</v>
+      </c>
+      <c r="J7" s="140">
+        <f>I7+H7</f>
+        <v>300</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="M7" s="19">
+        <v>189.12529550827423</v>
+      </c>
+      <c r="N7" s="20">
+        <v>89.834515366430267</v>
+      </c>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="45">
+        <v>120</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="139">
+        <v>84</v>
+      </c>
+      <c r="F8" s="140">
+        <v>36</v>
+      </c>
+      <c r="G8" s="140">
+        <f t="shared" ref="G8:G11" si="0">F8+E8</f>
+        <v>120</v>
+      </c>
+      <c r="H8" s="140">
+        <v>84</v>
+      </c>
+      <c r="I8" s="139">
+        <v>36</v>
+      </c>
+      <c r="J8" s="140">
+        <f t="shared" ref="J8:J11" si="1">I8+H8</f>
+        <v>120</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="M8" s="19">
+        <v>5910.1654846335705</v>
+      </c>
+      <c r="N8" s="20">
+        <v>945.62647754137117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="45">
+        <v>120</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="139">
+        <v>84</v>
+      </c>
+      <c r="F9" s="140">
+        <v>36</v>
+      </c>
+      <c r="G9" s="140">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H9" s="140">
+        <v>84</v>
+      </c>
+      <c r="I9" s="139">
+        <v>36</v>
+      </c>
+      <c r="J9" s="140">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="M9" s="19">
+        <v>6698.1875492513791</v>
+      </c>
+      <c r="N9" s="20">
+        <v>945.62647754137117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="45">
+        <v>60</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="139">
+        <v>42</v>
+      </c>
+      <c r="F10" s="140">
+        <v>18</v>
+      </c>
+      <c r="G10" s="140">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H10" s="140">
+        <v>42</v>
+      </c>
+      <c r="I10" s="139">
+        <v>18</v>
+      </c>
+      <c r="J10" s="140">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="M10" s="19">
+        <v>5910.1654846335705</v>
+      </c>
+      <c r="N10" s="20">
+        <v>945.62647754137117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="45">
+        <v>60</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="140">
+        <v>42</v>
+      </c>
+      <c r="F11" s="140">
+        <v>18</v>
+      </c>
+      <c r="G11" s="140">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H11" s="141">
+        <v>42</v>
+      </c>
+      <c r="I11" s="141">
+        <v>18</v>
+      </c>
+      <c r="J11" s="140">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="M11" s="19">
+        <v>5910.1654846335705</v>
+      </c>
+      <c r="N11" s="20">
+        <v>945.62647754137117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="125"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="125"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+    </row>
+    <row r="16" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+    </row>
+    <row r="17" spans="5:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="5:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="5:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="5:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="5:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="49" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="X49" s="88"/>
+    </row>
+    <row r="50" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="X50" s="88"/>
+    </row>
+    <row r="51" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="X51" s="88"/>
+    </row>
+    <row r="52" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="X52" s="46"/>
+    </row>
+    <row r="55" spans="23:24" x14ac:dyDescent="0.2">
+      <c r="W55" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A12:J16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="78" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>